--- a/M8 prog Planning.xlsx
+++ b/M8 prog Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Web/ma/m8prog_opdrachtensite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620C5D9E-222F-5F4E-BD36-CE8C1D1A611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35339C77-2936-2E45-B930-671B7BF40CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="500" windowWidth="34200" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="32980" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning - Table 1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Custom block</t>
   </si>
   <si>
-    <t>Views</t>
-  </si>
-  <si>
     <t>Child theme</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Transients</t>
+  </si>
+  <si>
+    <t>Custom post type</t>
   </si>
 </sst>
 </file>
@@ -497,6 +497,15 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -508,15 +517,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1823,11 +1823,11 @@
         <v>18</v>
       </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1839,10 +1839,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>31</v>
@@ -1851,16 +1851,16 @@
         <v>28</v>
       </c>
       <c r="H6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="J6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>11</v>
@@ -1891,17 +1891,17 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="32"/>
@@ -1913,8 +1913,8 @@
       <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32" t="s">
         <v>30</v>
@@ -1928,43 +1928,43 @@
       <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>39</v>
+      <c r="E10" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="J10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="K10" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>46</v>
       </c>
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="42" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -1974,10 +1974,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
@@ -1986,8 +1986,8 @@
       <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
         <v>27</v>
@@ -2018,12 +2018,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F6C3230A858A4C459E5EB46A0960A0F9" ma:contentTypeVersion="6" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="9e288dae2ed945489d5ac186278f96de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="47d551dc-0055-4613-a8d1-48556475d843" xmlns:ns3="38a2adff-e400-449b-b3d5-fa99d88d0156" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dafb7f281c5c559f4a717fc60c25ff68" ns2:_="" ns3:_="">
     <xsd:import namespace="47d551dc-0055-4613-a8d1-48556475d843"/>
@@ -2200,6 +2194,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2210,22 +2210,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EEA8341-36D7-4208-8F63-4AD7FC99A526}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="47d551dc-0055-4613-a8d1-48556475d843"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0935FDAA-51B9-457C-96D3-BBD8EE55A9A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2244,6 +2228,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EEA8341-36D7-4208-8F63-4AD7FC99A526}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="47d551dc-0055-4613-a8d1-48556475d843"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410D1276-D290-4C1F-B888-F907B91C7B68}">
   <ds:schemaRefs>

--- a/M8 prog Planning.xlsx
+++ b/M8 prog Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Web/ma/m8prog_opdrachtensite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35339C77-2936-2E45-B930-671B7BF40CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB13EF0-EC70-1741-B84C-FF4602D4C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="32980" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="1720" windowWidth="32980" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning - Table 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>week 1</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Custom post type</t>
+  </si>
+  <si>
+    <t>Wordpress Thema installatie</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1658,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1991,9 @@
     <row r="12" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="25"/>
+      <c r="C12" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="25" t="s">
         <v>27</v>
       </c>
